--- a/DistributionSystems/SimulinkOpal/Banshee/Banshee_UDP_Mapping.xlsx
+++ b/DistributionSystems/SimulinkOpal/Banshee/Banshee_UDP_Mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="203">
   <si>
     <t>Device</t>
   </si>
@@ -454,9 +454,6 @@
   </si>
   <si>
     <t>Waveform</t>
-  </si>
-  <si>
-    <t>pu</t>
   </si>
   <si>
     <t>Relay Data</t>
@@ -1266,7 +1263,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,7 +1322,7 @@
         <v>140</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1375,16 +1372,16 @@
         <v>1</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>142</v>
@@ -1403,15 +1400,15 @@
         <v>10</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>142</v>
@@ -1430,15 +1427,15 @@
         <v>10</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>142</v>
@@ -1457,15 +1454,15 @@
         <v>100</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>142</v>
@@ -1484,15 +1481,15 @@
         <v>100</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>142</v>
@@ -1511,15 +1508,15 @@
         <v>1</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>142</v>
@@ -1543,10 +1540,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>171</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>172</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>142</v>
@@ -1565,15 +1562,15 @@
         <v>100</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>142</v>
@@ -1592,15 +1589,15 @@
         <v>100</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>142</v>
@@ -1619,15 +1616,15 @@
         <v>100</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>142</v>
@@ -1646,15 +1643,15 @@
         <v>100</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>142</v>
@@ -1673,15 +1670,15 @@
         <v>100</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>142</v>
@@ -1700,15 +1697,15 @@
         <v>100</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>142</v>
@@ -1727,15 +1724,15 @@
         <v>100</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>142</v>
@@ -1754,15 +1751,15 @@
         <v>100</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>142</v>
@@ -1781,15 +1778,15 @@
         <v>100</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>142</v>
@@ -1808,15 +1805,15 @@
         <v>100</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C22" s="35" t="s">
         <v>142</v>
@@ -1835,15 +1832,15 @@
         <v>1</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C23" s="35" t="s">
         <v>142</v>
@@ -1862,15 +1859,15 @@
         <v>1</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>142</v>
@@ -1894,10 +1891,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>160</v>
       </c>
       <c r="C25" s="37" t="s">
         <v>142</v>
@@ -1921,10 +1918,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C26" s="37" t="s">
         <v>142</v>
@@ -1943,15 +1940,15 @@
         <v>1</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C27" s="37" t="s">
         <v>142</v>
@@ -1970,18 +1967,18 @@
         <v>1</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C28" s="39" t="s">
         <v>142</v>
@@ -2005,7 +2002,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C29" s="41" t="s">
         <v>142</v>
@@ -2022,12 +2019,12 @@
       </c>
       <c r="G29" s="41"/>
       <c r="H29" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C30" s="45" t="s">
         <v>142</v>
@@ -2044,7 +2041,7 @@
       </c>
       <c r="G30" s="45"/>
       <c r="H30" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2060,7 +2057,7 @@
     </row>
     <row r="33" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E33" s="43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F33" s="43">
         <f>SUM(F4:F32)</f>
@@ -2951,7 +2948,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>128</v>
@@ -2963,12 +2960,12 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -2982,7 +2979,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -3010,7 +3007,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>131</v>
@@ -3022,12 +3019,12 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>131</v>
@@ -3039,12 +3036,12 @@
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>128</v>
@@ -3056,12 +3053,12 @@
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>131</v>
@@ -3073,12 +3070,12 @@
         <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>131</v>
@@ -3090,12 +3087,12 @@
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>131</v>
@@ -3107,12 +3104,12 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>131</v>
@@ -3124,7 +3121,7 @@
         <v>131</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">

--- a/DistributionSystems/SimulinkOpal/Banshee/Banshee_UDP_Mapping.xlsx
+++ b/DistributionSystems/SimulinkOpal/Banshee/Banshee_UDP_Mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="205">
   <si>
     <t>Device</t>
   </si>
@@ -543,9 +543,6 @@
     <t>Heat Recovered</t>
   </si>
   <si>
-    <t>CHP NOx</t>
-  </si>
-  <si>
     <t>CHP CO2</t>
   </si>
   <si>
@@ -625,6 +622,15 @@
   </si>
   <si>
     <t>None added to Banshee as of 10/27/2016</t>
+  </si>
+  <si>
+    <t>Boiler Nm^3/hr</t>
+  </si>
+  <si>
+    <t>Boiler lbm/hr CO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel usage </t>
   </si>
 </sst>
 </file>
@@ -1260,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,7 +1328,7 @@
         <v>140</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1340,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="24">
-        <f t="shared" ref="F4:F30" si="0">RIGHT(C4,2)/8*D4*E4*$C$1</f>
+        <f t="shared" ref="F4:F31" si="0">RIGHT(C4,2)/8*D4*E4*$C$1</f>
         <v>10</v>
       </c>
       <c r="G4" s="24"/>
@@ -1570,7 +1576,7 @@
         <v>170</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>142</v>
@@ -1597,7 +1603,7 @@
         <v>169</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>142</v>
@@ -1624,7 +1630,7 @@
         <v>169</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>142</v>
@@ -1643,7 +1649,7 @@
         <v>100</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1670,7 +1676,7 @@
         <v>100</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1678,7 +1684,7 @@
         <v>169</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>142</v>
@@ -1697,14 +1703,14 @@
         <v>100</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="10" t="s">
         <v>175</v>
       </c>
       <c r="C18" s="32" t="s">
@@ -1724,14 +1730,14 @@
         <v>100</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="16" t="s">
         <v>176</v>
       </c>
       <c r="C19" s="32" t="s">
@@ -1751,14 +1757,14 @@
         <v>100</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="10" t="s">
         <v>177</v>
       </c>
       <c r="C20" s="32" t="s">
@@ -1778,7 +1784,7 @@
         <v>100</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1786,7 +1792,7 @@
         <v>169</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>142</v>
@@ -1809,30 +1815,30 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="C22" s="35" t="s">
+      <c r="A22" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="D22" s="35">
-        <v>1</v>
-      </c>
-      <c r="E22" s="35">
-        <v>1</v>
-      </c>
-      <c r="F22" s="36">
+      <c r="D22" s="32">
+        <v>1</v>
+      </c>
+      <c r="E22" s="33">
+        <v>1</v>
+      </c>
+      <c r="F22" s="34">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G22" s="35">
-        <v>1</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>188</v>
+      <c r="G22" s="32">
+        <v>100</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1840,7 +1846,7 @@
         <v>156</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C23" s="35" t="s">
         <v>142</v>
@@ -1859,60 +1865,60 @@
         <v>1</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="25" t="s">
+      <c r="A24" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="D24" s="25">
-        <v>1</v>
-      </c>
-      <c r="E24" s="25">
-        <v>1</v>
-      </c>
-      <c r="F24" s="26">
+      <c r="D24" s="35">
+        <v>1</v>
+      </c>
+      <c r="E24" s="35">
+        <v>1</v>
+      </c>
+      <c r="F24" s="36">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G24" s="25">
-        <v>1</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>131</v>
+      <c r="G24" s="35">
+        <v>1</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" s="37" t="s">
+      <c r="A25" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="D25" s="37">
-        <v>1</v>
-      </c>
-      <c r="E25" s="37">
-        <v>3</v>
-      </c>
-      <c r="F25" s="38">
-        <f>RIGHT(C25,2)/8*D25*E25*$C$1</f>
-        <v>30</v>
-      </c>
-      <c r="G25" s="37">
-        <v>1000</v>
-      </c>
-      <c r="H25" s="19" t="s">
+      <c r="D25" s="25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G25" s="25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="14" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1921,7 +1927,7 @@
         <v>158</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C26" s="37" t="s">
         <v>142</v>
@@ -1933,14 +1939,14 @@
         <v>3</v>
       </c>
       <c r="F26" s="38">
-        <f t="shared" si="0"/>
+        <f>RIGHT(C26,2)/8*D26*E26*$C$1</f>
         <v>30</v>
       </c>
       <c r="G26" s="37">
-        <v>1</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>186</v>
+        <v>1000</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1948,7 +1954,7 @@
         <v>158</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C27" s="37" t="s">
         <v>142</v>
@@ -1967,101 +1973,128 @@
         <v>1</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="J27" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="37">
+        <v>1</v>
+      </c>
+      <c r="E28" s="37">
+        <v>3</v>
+      </c>
+      <c r="F28" s="38">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G28" s="37">
+        <v>1</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="J28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B29" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C29" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="39">
-        <v>1</v>
-      </c>
-      <c r="E28" s="39">
-        <v>1</v>
-      </c>
-      <c r="F28" s="40">
+      <c r="D29" s="39">
+        <v>1</v>
+      </c>
+      <c r="E29" s="39">
+        <v>1</v>
+      </c>
+      <c r="F29" s="40">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G28" s="39">
-        <v>1</v>
-      </c>
-      <c r="H28" s="21" t="s">
+      <c r="G29" s="39">
+        <v>1</v>
+      </c>
+      <c r="H29" s="21" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C30" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="D29" s="41">
-        <v>1</v>
-      </c>
-      <c r="E29" s="41">
-        <v>1</v>
-      </c>
-      <c r="F29" s="24">
+      <c r="D30" s="41">
+        <v>1</v>
+      </c>
+      <c r="E30" s="41">
+        <v>1</v>
+      </c>
+      <c r="F30" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G29" s="41"/>
-      <c r="H29" s="6" t="s">
+      <c r="G30" s="41"/>
+      <c r="H30" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
+    <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C31" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="D30" s="45">
-        <v>1</v>
-      </c>
-      <c r="E30" s="45">
-        <v>1</v>
-      </c>
-      <c r="F30" s="46">
+      <c r="D31" s="45">
+        <v>1</v>
+      </c>
+      <c r="E31" s="45">
+        <v>1</v>
+      </c>
+      <c r="F31" s="46">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G30" s="45"/>
-      <c r="H30" s="47" t="s">
+      <c r="G31" s="45"/>
+      <c r="H31" s="47" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E31" s="43">
-        <f>SUM(E6:E30)+E4+D5*E5</f>
-        <v>265</v>
-      </c>
-      <c r="F31" s="44"/>
-    </row>
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E32" s="44"/>
+      <c r="E32" s="43">
+        <f>SUM(E6:E31)+E4+D5*E5</f>
+        <v>266</v>
+      </c>
       <c r="F32" s="44"/>
     </row>
     <row r="33" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E33" s="43" t="s">
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+    </row>
+    <row r="34" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E34" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="F33" s="43">
-        <f>SUM(F4:F32)</f>
-        <v>2650</v>
+      <c r="F34" s="43">
+        <f>SUM(F4:F33)</f>
+        <v>2660</v>
       </c>
     </row>
   </sheetData>
@@ -2948,7 +2981,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>128</v>
@@ -2960,12 +2993,12 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -2979,7 +3012,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -3007,7 +3040,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>131</v>
@@ -3019,12 +3052,12 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>131</v>
@@ -3036,12 +3069,12 @@
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>128</v>
@@ -3053,12 +3086,12 @@
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>131</v>
@@ -3070,12 +3103,12 @@
         <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>131</v>
@@ -3087,12 +3120,12 @@
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>131</v>
@@ -3104,12 +3137,12 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>131</v>
@@ -3121,7 +3154,7 @@
         <v>131</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">

--- a/DistributionSystems/SimulinkOpal/Banshee/Banshee_UDP_Mapping.xlsx
+++ b/DistributionSystems/SimulinkOpal/Banshee/Banshee_UDP_Mapping.xlsx
@@ -783,7 +783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -822,13 +822,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -837,34 +831,19 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -880,9 +859,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1269,7 +1245,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,7 +1264,7 @@
       <c r="B1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="42">
+      <c r="C1" s="35">
         <v>5</v>
       </c>
     </row>
@@ -1336,7 +1312,7 @@
       <c r="B4" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="34" t="s">
         <v>142</v>
       </c>
       <c r="D4" s="24">
@@ -1370,7 +1346,7 @@
       <c r="E5" s="25">
         <v>3</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="24">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -1389,20 +1365,20 @@
       <c r="B6" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="27">
-        <v>1</v>
-      </c>
-      <c r="E6" s="27">
+      <c r="D6" s="26">
+        <v>1</v>
+      </c>
+      <c r="E6" s="26">
         <v>47</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="24">
         <f t="shared" si="0"/>
         <v>470</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="26">
         <v>10</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -1416,20 +1392,20 @@
       <c r="B7" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="27">
-        <v>1</v>
-      </c>
-      <c r="E7" s="27">
+      <c r="D7" s="26">
+        <v>1</v>
+      </c>
+      <c r="E7" s="26">
         <v>47</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="24">
         <f t="shared" si="0"/>
         <v>470</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="26">
         <v>10</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -1443,20 +1419,20 @@
       <c r="B8" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="27">
-        <v>1</v>
-      </c>
-      <c r="E8" s="27">
+      <c r="D8" s="26">
+        <v>1</v>
+      </c>
+      <c r="E8" s="26">
         <v>47</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="24">
         <f t="shared" si="0"/>
         <v>470</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="26">
         <v>100</v>
       </c>
       <c r="H8" s="7" t="s">
@@ -1470,20 +1446,20 @@
       <c r="B9" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="27">
-        <v>1</v>
-      </c>
-      <c r="E9" s="27">
+      <c r="D9" s="26">
+        <v>1</v>
+      </c>
+      <c r="E9" s="26">
         <v>47</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="24">
         <f t="shared" si="0"/>
         <v>470</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="26">
         <v>100</v>
       </c>
       <c r="H9" s="7" t="s">
@@ -1497,20 +1473,20 @@
       <c r="B10" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="27">
-        <v>1</v>
-      </c>
-      <c r="E10" s="27">
+      <c r="D10" s="26">
+        <v>1</v>
+      </c>
+      <c r="E10" s="26">
         <v>47</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="24">
         <f t="shared" si="0"/>
         <v>470</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="26">
         <v>1</v>
       </c>
       <c r="H10" s="7" t="s">
@@ -1533,7 +1509,7 @@
       <c r="E11" s="25">
         <v>1</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1549,26 +1525,26 @@
         <v>170</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="29">
-        <v>1</v>
-      </c>
-      <c r="E12" s="30">
-        <v>1</v>
-      </c>
-      <c r="F12" s="31">
+      <c r="D12" s="27">
+        <v>1</v>
+      </c>
+      <c r="E12" s="28">
+        <v>1</v>
+      </c>
+      <c r="F12" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="27">
         <v>100</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1576,26 +1552,26 @@
         <v>170</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C13" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="29">
-        <v>1</v>
-      </c>
-      <c r="E13" s="30">
-        <v>1</v>
-      </c>
-      <c r="F13" s="31">
+      <c r="D13" s="27">
+        <v>1</v>
+      </c>
+      <c r="E13" s="28">
+        <v>1</v>
+      </c>
+      <c r="F13" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="27">
         <v>100</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1605,20 +1581,20 @@
       <c r="B14" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="32">
-        <v>1</v>
-      </c>
-      <c r="E14" s="33">
-        <v>1</v>
-      </c>
-      <c r="F14" s="34">
+      <c r="D14" s="29">
+        <v>1</v>
+      </c>
+      <c r="E14" s="30">
+        <v>1</v>
+      </c>
+      <c r="F14" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="29">
         <v>100</v>
       </c>
       <c r="H14" s="10" t="s">
@@ -1632,20 +1608,20 @@
       <c r="B15" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="32">
-        <v>1</v>
-      </c>
-      <c r="E15" s="33">
-        <v>1</v>
-      </c>
-      <c r="F15" s="34">
+      <c r="D15" s="29">
+        <v>1</v>
+      </c>
+      <c r="E15" s="30">
+        <v>1</v>
+      </c>
+      <c r="F15" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="29">
         <v>100</v>
       </c>
       <c r="H15" s="10" t="s">
@@ -1659,20 +1635,20 @@
       <c r="B16" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="32">
-        <v>1</v>
-      </c>
-      <c r="E16" s="33">
-        <v>1</v>
-      </c>
-      <c r="F16" s="34">
+      <c r="D16" s="29">
+        <v>1</v>
+      </c>
+      <c r="E16" s="30">
+        <v>1</v>
+      </c>
+      <c r="F16" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="29">
         <v>100</v>
       </c>
       <c r="H16" s="10" t="s">
@@ -1686,20 +1662,20 @@
       <c r="B17" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="32">
-        <v>1</v>
-      </c>
-      <c r="E17" s="33">
-        <v>1</v>
-      </c>
-      <c r="F17" s="34">
+      <c r="D17" s="29">
+        <v>1</v>
+      </c>
+      <c r="E17" s="30">
+        <v>1</v>
+      </c>
+      <c r="F17" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="29">
         <v>100</v>
       </c>
       <c r="H17" s="10" t="s">
@@ -1713,20 +1689,20 @@
       <c r="B18" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="32">
-        <v>1</v>
-      </c>
-      <c r="E18" s="33">
-        <v>1</v>
-      </c>
-      <c r="F18" s="34">
+      <c r="D18" s="29">
+        <v>1</v>
+      </c>
+      <c r="E18" s="30">
+        <v>1</v>
+      </c>
+      <c r="F18" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="29">
         <v>100</v>
       </c>
       <c r="H18" s="10" t="s">
@@ -1740,20 +1716,20 @@
       <c r="B19" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="32">
-        <v>1</v>
-      </c>
-      <c r="E19" s="33">
-        <v>1</v>
-      </c>
-      <c r="F19" s="34">
+      <c r="D19" s="29">
+        <v>1</v>
+      </c>
+      <c r="E19" s="30">
+        <v>1</v>
+      </c>
+      <c r="F19" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="29">
         <v>100</v>
       </c>
       <c r="H19" s="10" t="s">
@@ -1767,20 +1743,20 @@
       <c r="B20" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="32">
-        <v>1</v>
-      </c>
-      <c r="E20" s="33">
-        <v>1</v>
-      </c>
-      <c r="F20" s="34">
+      <c r="D20" s="29">
+        <v>1</v>
+      </c>
+      <c r="E20" s="30">
+        <v>1</v>
+      </c>
+      <c r="F20" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="29">
         <v>100</v>
       </c>
       <c r="H20" s="10" t="s">
@@ -1794,20 +1770,20 @@
       <c r="B21" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D21" s="32">
-        <v>1</v>
-      </c>
-      <c r="E21" s="33">
-        <v>1</v>
-      </c>
-      <c r="F21" s="34">
+      <c r="D21" s="29">
+        <v>1</v>
+      </c>
+      <c r="E21" s="30">
+        <v>1</v>
+      </c>
+      <c r="F21" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="29">
         <v>100</v>
       </c>
       <c r="H21" s="10" t="s">
@@ -1821,20 +1797,20 @@
       <c r="B22" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D22" s="32">
-        <v>1</v>
-      </c>
-      <c r="E22" s="33">
-        <v>1</v>
-      </c>
-      <c r="F22" s="34">
+      <c r="D22" s="29">
+        <v>1</v>
+      </c>
+      <c r="E22" s="30">
+        <v>1</v>
+      </c>
+      <c r="F22" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="29">
         <v>100</v>
       </c>
       <c r="H22" s="10" t="s">
@@ -1848,20 +1824,20 @@
       <c r="B23" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="D23" s="35">
-        <v>1</v>
-      </c>
-      <c r="E23" s="35">
-        <v>1</v>
-      </c>
-      <c r="F23" s="36">
+      <c r="D23" s="31">
+        <v>1</v>
+      </c>
+      <c r="E23" s="31">
+        <v>1</v>
+      </c>
+      <c r="F23" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="31">
         <v>1</v>
       </c>
       <c r="H23" s="18" t="s">
@@ -1875,20 +1851,20 @@
       <c r="B24" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="D24" s="35">
-        <v>1</v>
-      </c>
-      <c r="E24" s="35">
-        <v>1</v>
-      </c>
-      <c r="F24" s="36">
+      <c r="D24" s="31">
+        <v>1</v>
+      </c>
+      <c r="E24" s="31">
+        <v>1</v>
+      </c>
+      <c r="F24" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="31">
         <v>1</v>
       </c>
       <c r="H24" s="18" t="s">
@@ -1911,7 +1887,7 @@
       <c r="E25" s="25">
         <v>1</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1929,20 +1905,20 @@
       <c r="B26" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="D26" s="37">
-        <v>1</v>
-      </c>
-      <c r="E26" s="37">
+      <c r="D26" s="32">
+        <v>1</v>
+      </c>
+      <c r="E26" s="32">
         <v>3</v>
       </c>
-      <c r="F26" s="38">
-        <f>RIGHT(C26,2)/8*D26*E26*$C$1</f>
+      <c r="F26" s="24">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G26" s="32">
         <v>1000</v>
       </c>
       <c r="H26" s="19" t="s">
@@ -1956,20 +1932,20 @@
       <c r="B27" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="D27" s="37">
-        <v>1</v>
-      </c>
-      <c r="E27" s="37">
+      <c r="D27" s="32">
+        <v>1</v>
+      </c>
+      <c r="E27" s="32">
         <v>3</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="24">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G27" s="32">
         <v>1</v>
       </c>
       <c r="H27" s="15" t="s">
@@ -1983,20 +1959,20 @@
       <c r="B28" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="37">
-        <v>1</v>
-      </c>
-      <c r="E28" s="37">
+      <c r="D28" s="32">
+        <v>1</v>
+      </c>
+      <c r="E28" s="32">
         <v>3</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="24">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G28" s="37">
+      <c r="G28" s="32">
         <v>1</v>
       </c>
       <c r="H28" s="15" t="s">
@@ -2013,20 +1989,20 @@
       <c r="B29" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="D29" s="39">
-        <v>1</v>
-      </c>
-      <c r="E29" s="39">
-        <v>1</v>
-      </c>
-      <c r="F29" s="40">
+      <c r="D29" s="33">
+        <v>1</v>
+      </c>
+      <c r="E29" s="33">
+        <v>1</v>
+      </c>
+      <c r="F29" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G29" s="39">
+      <c r="G29" s="33">
         <v>1</v>
       </c>
       <c r="H29" s="21" t="s">
@@ -2037,20 +2013,20 @@
       <c r="B30" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="D30" s="41">
-        <v>1</v>
-      </c>
-      <c r="E30" s="41">
+      <c r="D30" s="34">
+        <v>1</v>
+      </c>
+      <c r="E30" s="34">
         <v>1</v>
       </c>
       <c r="F30" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G30" s="41"/>
+      <c r="G30" s="34"/>
       <c r="H30" s="6" t="s">
         <v>164</v>
       </c>
@@ -2059,40 +2035,40 @@
       <c r="B31" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="D31" s="45">
-        <v>1</v>
-      </c>
-      <c r="E31" s="45">
-        <v>1</v>
-      </c>
-      <c r="F31" s="46">
+      <c r="D31" s="38">
+        <v>1</v>
+      </c>
+      <c r="E31" s="38">
+        <v>1</v>
+      </c>
+      <c r="F31" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G31" s="45"/>
-      <c r="H31" s="47" t="s">
+      <c r="G31" s="38"/>
+      <c r="H31" s="39" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E32" s="43">
+      <c r="E32" s="36">
         <f>SUM(E6:E31)+E4+D5*E5</f>
         <v>266</v>
       </c>
-      <c r="F32" s="44"/>
+      <c r="F32" s="37"/>
     </row>
     <row r="33" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
     </row>
     <row r="34" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E34" s="43" t="s">
+      <c r="E34" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="F34" s="43">
+      <c r="F34" s="36">
         <f>SUM(F4:F33)</f>
         <v>2660</v>
       </c>
@@ -2852,87 +2828,87 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="48" t="s">
+      <c r="A44" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="48">
-        <v>502</v>
-      </c>
-      <c r="D44" s="48" t="s">
+      <c r="C44" s="40">
+        <v>502</v>
+      </c>
+      <c r="D44" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="48" t="s">
+      <c r="E44" s="40" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="48" t="s">
+      <c r="A45" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="48">
-        <v>502</v>
-      </c>
-      <c r="D45" s="48" t="s">
+      <c r="C45" s="40">
+        <v>502</v>
+      </c>
+      <c r="D45" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="48" t="s">
+      <c r="E45" s="40" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="48" t="s">
+      <c r="A46" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="48">
-        <v>502</v>
-      </c>
-      <c r="D46" s="48" t="s">
+      <c r="C46" s="40">
+        <v>502</v>
+      </c>
+      <c r="D46" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="48" t="s">
+      <c r="E46" s="40" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="48" t="s">
+      <c r="A47" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="D47" s="48" t="s">
+      <c r="D47" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="48" t="s">
+      <c r="E47" s="40" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="D48" s="48" t="s">
+      <c r="D48" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="48" t="s">
+      <c r="E48" s="40" t="s">
         <v>10</v>
       </c>
     </row>

--- a/DistributionSystems/SimulinkOpal/Banshee/Banshee_UDP_Mapping.xlsx
+++ b/DistributionSystems/SimulinkOpal/Banshee/Banshee_UDP_Mapping.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\re25624\Desktop\REPO_branch\DistributionSystems\SimulinkOpal\Banshee\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="21075" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="PacketFormat" sheetId="6" r:id="rId1"/>
-    <sheet name="Relays - Order" sheetId="1" r:id="rId2"/>
-    <sheet name="Other Packet Components" sheetId="7" r:id="rId3"/>
+    <sheet name="Relay Data - Order" sheetId="1" r:id="rId2"/>
+    <sheet name="MiscData1 - Order" sheetId="8" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="242">
   <si>
     <t>Device</t>
   </si>
@@ -33,18 +38,12 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>192.168.10.35</t>
-  </si>
-  <si>
     <t>F3</t>
   </si>
   <si>
     <t>Woodward EasyGen 3500 controlling the 3.5 MVA natural gas-fired combined heat and power system</t>
   </si>
   <si>
-    <t>192.168.10.36</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
@@ -84,12 +83,6 @@
     <t>F3 POI interconnection relay</t>
   </si>
   <si>
-    <t>CHP Thermal Controller</t>
-  </si>
-  <si>
-    <t>192.168.10.55</t>
-  </si>
-  <si>
     <t>Generic Relay CB101</t>
   </si>
   <si>
@@ -402,9 +395,6 @@
     <t>Controls CB for Priority Load P6</t>
   </si>
   <si>
-    <t>192.168.10.tbd</t>
-  </si>
-  <si>
     <t>Natural Gas GCB</t>
   </si>
   <si>
@@ -504,9 +494,6 @@
     <t>Lagging/Leading</t>
   </si>
   <si>
-    <t>Misc Data</t>
-  </si>
-  <si>
     <t>Stop byte</t>
   </si>
   <si>
@@ -594,36 +581,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Diesel Genset</t>
-  </si>
-  <si>
-    <t>Natural Gas Engine</t>
-  </si>
-  <si>
-    <t>BESS + Controller</t>
-  </si>
-  <si>
-    <t>PV + Controller</t>
-  </si>
-  <si>
-    <t>Induction motor</t>
-  </si>
-  <si>
-    <t>ON/OFF states controlled via test sequence engine</t>
-  </si>
-  <si>
-    <t>POI Power Factor</t>
-  </si>
-  <si>
-    <t>Power factor information at the point of interconnection</t>
-  </si>
-  <si>
-    <t>Misc. Data</t>
-  </si>
-  <si>
-    <t>None added to Banshee as of 10/27/2016</t>
-  </si>
-  <si>
     <t>Boiler Nm^3/hr</t>
   </si>
   <si>
@@ -631,12 +588,171 @@
   </si>
   <si>
     <t xml:space="preserve">Fuel usage </t>
+  </si>
+  <si>
+    <t>BESS_MX1</t>
+  </si>
+  <si>
+    <t>Battery SoC [%]</t>
+  </si>
+  <si>
+    <t>VRMSLL</t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>kVAR</t>
+  </si>
+  <si>
+    <t>Misc Data - 1</t>
+  </si>
+  <si>
+    <t>Misc Data - 2</t>
+  </si>
+  <si>
+    <t>Misc Data - 3</t>
+  </si>
+  <si>
+    <t>Load Real Power</t>
+  </si>
+  <si>
+    <t>Load Voltage</t>
+  </si>
+  <si>
+    <t>DMS - PF Correction - Value</t>
+  </si>
+  <si>
+    <t>DMS - kW import request - Value</t>
+  </si>
+  <si>
+    <t>DMS - kW import request - Enable</t>
+  </si>
+  <si>
+    <t>DMS - PF Correction - Enable</t>
+  </si>
+  <si>
+    <t>DMS - kW export request - Value</t>
+  </si>
+  <si>
+    <t>DMS - kW export request - Enable</t>
+  </si>
+  <si>
+    <t>Auto-synchronize - Enable</t>
+  </si>
+  <si>
+    <t>Microgrid controller start - Enable</t>
+  </si>
+  <si>
+    <t>Blackstart - Enable</t>
+  </si>
+  <si>
+    <t>DMS - Disconnect request</t>
+  </si>
+  <si>
+    <t>Test Sequence - Fault 1</t>
+  </si>
+  <si>
+    <t>Test Sequence - Fault 2</t>
+  </si>
+  <si>
+    <t>Test Sequence - Fault 3</t>
+  </si>
+  <si>
+    <t>Test Sequence - Fault 4</t>
+  </si>
+  <si>
+    <t>Test Sequence - Fault 5</t>
+  </si>
+  <si>
+    <t>Test Sequence - Loss of upstream</t>
+  </si>
+  <si>
+    <t>Test Sequence - Irradiance</t>
+  </si>
+  <si>
+    <t>Test Sequence - Motor 1 On/Off</t>
+  </si>
+  <si>
+    <t>Test Sequence - Motor 2 On/Off</t>
+  </si>
+  <si>
+    <t>LO: No active, HI: Active</t>
+  </si>
+  <si>
+    <t>W/m^3</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>I6</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>Scale Factor</t>
+  </si>
+  <si>
+    <t>Relay located after the BESS filter and controlled by the EPC board</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -668,13 +784,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -696,8 +805,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -770,8 +887,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -779,16 +914,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -800,7 +952,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
@@ -809,11 +960,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -852,10 +1002,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -870,6 +1020,39 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -882,6 +1065,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -891,10 +1095,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -923,6 +1135,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -942,16 +1157,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:E1048556" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E1048556"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Device" dataDxfId="4"/>
-    <tableColumn id="2" name="IP Address " dataDxfId="3"/>
-    <tableColumn id="3" name="TCP Port" dataDxfId="2"/>
-    <tableColumn id="4" name="Feeder Location ID" dataDxfId="1"/>
-    <tableColumn id="5" name="Notes" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C37" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="A1:C37"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Load" dataDxfId="4"/>
+    <tableColumn id="2" name="Attribute" dataDxfId="3"/>
+    <tableColumn id="3" name="Scale Factor" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -998,7 +1211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1033,7 +1246,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1242,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,816 +1474,1523 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23" t="s">
+      <c r="E3" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="F3" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="G3" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="H3" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="23" t="s">
+      <c r="C4" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="21">
+        <v>1</v>
+      </c>
+      <c r="E4" s="21">
+        <v>1</v>
+      </c>
+      <c r="F4" s="21">
+        <f t="shared" ref="F4:F57" si="0">RIGHT(C4,2)/8*D4*E4*$C$1</f>
+        <v>10</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="23" t="s">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="B5" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="23" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5" t="s">
+      <c r="C5" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="22">
+        <v>1</v>
+      </c>
+      <c r="E5" s="22">
+        <v>3</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G5" s="22">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="B6" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="24">
-        <v>1</v>
-      </c>
-      <c r="E4" s="24">
-        <v>1</v>
-      </c>
-      <c r="F4" s="24">
-        <f t="shared" ref="F4:F31" si="0">RIGHT(C4,2)/8*D4*E4*$C$1</f>
-        <v>10</v>
-      </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="5" t="s">
+      <c r="C6" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="23">
+        <v>1</v>
+      </c>
+      <c r="E6" s="23">
+        <v>48</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="G6" s="23">
+        <v>10</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C7" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="23">
+        <v>1</v>
+      </c>
+      <c r="E7" s="23">
+        <v>48</v>
+      </c>
+      <c r="F7" s="21">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="G7" s="23">
+        <v>10</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="25" t="s">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="23">
+        <v>1</v>
+      </c>
+      <c r="E8" s="23">
+        <v>48</v>
+      </c>
+      <c r="F8" s="21">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="G8" s="23">
+        <v>100</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="23">
+        <v>1</v>
+      </c>
+      <c r="E9" s="23">
+        <v>48</v>
+      </c>
+      <c r="F9" s="21">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="G9" s="23">
+        <v>100</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="23">
+        <v>1</v>
+      </c>
+      <c r="E10" s="23">
+        <v>48</v>
+      </c>
+      <c r="F10" s="21">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="G10" s="23">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="22">
+        <v>1</v>
+      </c>
+      <c r="E11" s="22">
+        <v>1</v>
+      </c>
+      <c r="F11" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G11" s="22">
+        <v>100</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="22">
+        <v>1</v>
+      </c>
+      <c r="E12" s="22">
+        <v>1</v>
+      </c>
+      <c r="F12" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G12" s="22">
+        <v>100</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="22">
+        <v>1</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1</v>
+      </c>
+      <c r="F13" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G13" s="22">
+        <v>100</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="25">
-        <v>1</v>
-      </c>
-      <c r="E5" s="25">
-        <v>3</v>
-      </c>
-      <c r="F5" s="24">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G5" s="25">
-        <v>1</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="26">
-        <v>1</v>
-      </c>
-      <c r="E6" s="26">
-        <v>47</v>
-      </c>
-      <c r="F6" s="24">
-        <f t="shared" si="0"/>
-        <v>470</v>
-      </c>
-      <c r="G6" s="26">
-        <v>10</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="26">
-        <v>1</v>
-      </c>
-      <c r="E7" s="26">
-        <v>47</v>
-      </c>
-      <c r="F7" s="24">
-        <f t="shared" si="0"/>
-        <v>470</v>
-      </c>
-      <c r="G7" s="26">
-        <v>10</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="C14" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="22">
+        <v>1</v>
+      </c>
+      <c r="E14" s="22">
+        <v>1</v>
+      </c>
+      <c r="F14" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G14" s="22">
+        <v>100</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="26">
-        <v>1</v>
-      </c>
-      <c r="E8" s="26">
-        <v>47</v>
-      </c>
-      <c r="F8" s="24">
-        <f t="shared" si="0"/>
-        <v>470</v>
-      </c>
-      <c r="G8" s="26">
-        <v>100</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="26">
-        <v>1</v>
-      </c>
-      <c r="E9" s="26">
-        <v>47</v>
-      </c>
-      <c r="F9" s="24">
-        <f t="shared" si="0"/>
-        <v>470</v>
-      </c>
-      <c r="G9" s="26">
-        <v>100</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="26">
-        <v>1</v>
-      </c>
-      <c r="E10" s="26">
-        <v>47</v>
-      </c>
-      <c r="F10" s="24">
-        <f t="shared" si="0"/>
-        <v>470</v>
-      </c>
-      <c r="G10" s="26">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="25">
-        <v>1</v>
-      </c>
-      <c r="E11" s="25">
-        <v>1</v>
-      </c>
-      <c r="F11" s="24">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G11" s="25">
-        <v>1</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" s="27">
-        <v>1</v>
-      </c>
-      <c r="E12" s="28">
-        <v>1</v>
-      </c>
-      <c r="F12" s="24">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G12" s="27">
-        <v>100</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="27">
-        <v>1</v>
-      </c>
-      <c r="E13" s="28">
-        <v>1</v>
-      </c>
-      <c r="F13" s="24">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G13" s="27">
-        <v>100</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="D14" s="29">
-        <v>1</v>
-      </c>
-      <c r="E14" s="30">
-        <v>1</v>
-      </c>
-      <c r="F14" s="24">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G14" s="29">
-        <v>100</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="29">
-        <v>1</v>
-      </c>
-      <c r="E15" s="30">
-        <v>1</v>
-      </c>
-      <c r="F15" s="24">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G15" s="29">
-        <v>100</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>179</v>
+      <c r="B15" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="22">
+        <v>1</v>
+      </c>
+      <c r="E15" s="22">
+        <v>1</v>
+      </c>
+      <c r="F15" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G15" s="22">
+        <v>100</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="24">
+        <v>1</v>
+      </c>
+      <c r="E16" s="25">
+        <v>1</v>
+      </c>
+      <c r="F16" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G16" s="24">
+        <v>100</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="24">
+        <v>1</v>
+      </c>
+      <c r="E17" s="25">
+        <v>1</v>
+      </c>
+      <c r="F17" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G17" s="24">
+        <v>100</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="26">
+        <v>1</v>
+      </c>
+      <c r="E18" s="27">
+        <v>1</v>
+      </c>
+      <c r="F18" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G18" s="26">
+        <v>100</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="26">
+        <v>1</v>
+      </c>
+      <c r="E19" s="27">
+        <v>1</v>
+      </c>
+      <c r="F19" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G19" s="26">
+        <v>100</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="26">
+        <v>1</v>
+      </c>
+      <c r="E20" s="27">
+        <v>1</v>
+      </c>
+      <c r="F20" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G20" s="26">
+        <v>100</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="26">
+        <v>1</v>
+      </c>
+      <c r="E21" s="27">
+        <v>1</v>
+      </c>
+      <c r="F21" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G21" s="26">
+        <v>100</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C22" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="26">
+        <v>1</v>
+      </c>
+      <c r="E22" s="27">
+        <v>1</v>
+      </c>
+      <c r="F22" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G22" s="26">
+        <v>100</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="26">
+        <v>1</v>
+      </c>
+      <c r="E23" s="27">
+        <v>1</v>
+      </c>
+      <c r="F23" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G23" s="26">
+        <v>100</v>
+      </c>
+      <c r="H23" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="29" t="s">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="26">
+        <v>1</v>
+      </c>
+      <c r="E24" s="27">
+        <v>1</v>
+      </c>
+      <c r="F24" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G24" s="26">
+        <v>100</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="26">
+        <v>1</v>
+      </c>
+      <c r="E25" s="27">
+        <v>1</v>
+      </c>
+      <c r="F25" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G25" s="26">
+        <v>100</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="27">
+        <v>1</v>
+      </c>
+      <c r="F26" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G26" s="26">
+        <v>100</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="28">
+        <v>1</v>
+      </c>
+      <c r="E27" s="28">
+        <v>1</v>
+      </c>
+      <c r="F27" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G27" s="28">
+        <v>1</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G28" s="28">
+        <v>1</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="42">
+        <v>1</v>
+      </c>
+      <c r="E29" s="42">
+        <v>1</v>
+      </c>
+      <c r="F29" s="42">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G29" s="42">
+        <v>100</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="29">
-        <v>1</v>
-      </c>
-      <c r="E16" s="30">
-        <v>1</v>
-      </c>
-      <c r="F16" s="24">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G16" s="29">
-        <v>100</v>
-      </c>
-      <c r="H16" s="10" t="s">
+      <c r="C30" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="42">
+        <v>1</v>
+      </c>
+      <c r="E30" s="42">
+        <v>1</v>
+      </c>
+      <c r="F30" s="42">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G30" s="42">
+        <v>100</v>
+      </c>
+      <c r="H30" s="41" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="42">
+        <v>1</v>
+      </c>
+      <c r="E31" s="42">
+        <v>1</v>
+      </c>
+      <c r="F31" s="42">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G31" s="42">
+        <v>100</v>
+      </c>
+      <c r="H31" s="41" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="29">
+        <v>1</v>
+      </c>
+      <c r="E32" s="29">
+        <v>3</v>
+      </c>
+      <c r="F32" s="21">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G32" s="29">
+        <v>1000</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="29">
+        <v>1</v>
+      </c>
+      <c r="E33" s="29">
+        <v>3</v>
+      </c>
+      <c r="F33" s="21">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G33" s="29">
+        <v>1</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="29">
+        <v>1</v>
+      </c>
+      <c r="E34" s="29">
+        <v>3</v>
+      </c>
+      <c r="F34" s="21">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G34" s="29">
+        <v>1</v>
+      </c>
+      <c r="H34" s="13" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" s="10" t="s">
+      <c r="J34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="30">
+        <v>1</v>
+      </c>
+      <c r="E35" s="30">
+        <v>18</v>
+      </c>
+      <c r="F35" s="43">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="G35" s="30">
+        <v>1</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="30">
+        <v>1</v>
+      </c>
+      <c r="E36" s="30">
+        <v>18</v>
+      </c>
+      <c r="F36" s="43">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="G36" s="30">
+        <v>1</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="46">
+        <v>1</v>
+      </c>
+      <c r="E37" s="46">
+        <v>1</v>
+      </c>
+      <c r="F37" s="47">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G37" s="46">
+        <v>100</v>
+      </c>
+      <c r="H37" s="48" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="46">
+        <v>1</v>
+      </c>
+      <c r="E38" s="46">
+        <v>1</v>
+      </c>
+      <c r="F38" s="47">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G38" s="46">
+        <v>100</v>
+      </c>
+      <c r="H38" s="45" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="46">
+        <v>1</v>
+      </c>
+      <c r="E39" s="46">
+        <v>1</v>
+      </c>
+      <c r="F39" s="47">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G39" s="46">
+        <v>100</v>
+      </c>
+      <c r="H39" s="48" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="46">
+        <v>1</v>
+      </c>
+      <c r="E40" s="46">
+        <v>1</v>
+      </c>
+      <c r="F40" s="47">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G40" s="46">
+        <v>100</v>
+      </c>
+      <c r="H40" s="45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="46">
+        <v>1</v>
+      </c>
+      <c r="E41" s="46">
+        <v>1</v>
+      </c>
+      <c r="F41" s="47">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G41" s="46">
+        <v>100</v>
+      </c>
+      <c r="H41" s="48" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="46">
+        <v>1</v>
+      </c>
+      <c r="E42" s="46">
+        <v>1</v>
+      </c>
+      <c r="F42" s="47">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G42" s="46">
+        <v>100</v>
+      </c>
+      <c r="H42" s="45" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B43" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="D17" s="29">
-        <v>1</v>
-      </c>
-      <c r="E17" s="30">
-        <v>1</v>
-      </c>
-      <c r="F17" s="24">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G17" s="29">
-        <v>100</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="29">
-        <v>1</v>
-      </c>
-      <c r="E18" s="30">
-        <v>1</v>
-      </c>
-      <c r="F18" s="24">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G18" s="29">
-        <v>100</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" s="29">
-        <v>1</v>
-      </c>
-      <c r="E19" s="30">
-        <v>1</v>
-      </c>
-      <c r="F19" s="24">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G19" s="29">
-        <v>100</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="29">
-        <v>1</v>
-      </c>
-      <c r="E20" s="30">
-        <v>1</v>
-      </c>
-      <c r="F20" s="24">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G20" s="29">
-        <v>100</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="29">
-        <v>1</v>
-      </c>
-      <c r="E21" s="30">
-        <v>1</v>
-      </c>
-      <c r="F21" s="24">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G21" s="29">
-        <v>100</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" s="29">
-        <v>1</v>
-      </c>
-      <c r="E22" s="30">
-        <v>1</v>
-      </c>
-      <c r="F22" s="24">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G22" s="29">
-        <v>100</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="D23" s="31">
-        <v>1</v>
-      </c>
-      <c r="E23" s="31">
-        <v>1</v>
-      </c>
-      <c r="F23" s="24">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G23" s="31">
-        <v>1</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="31">
-        <v>1</v>
-      </c>
-      <c r="E24" s="31">
-        <v>1</v>
-      </c>
-      <c r="F24" s="24">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G24" s="31">
-        <v>1</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="C43" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="46">
+        <v>1</v>
+      </c>
+      <c r="E43" s="46">
+        <v>1</v>
+      </c>
+      <c r="F43" s="47">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G43" s="46">
+        <v>100</v>
+      </c>
+      <c r="H43" s="48" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="46">
+        <v>1</v>
+      </c>
+      <c r="E44" s="46">
+        <v>1</v>
+      </c>
+      <c r="F44" s="47">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G44" s="46">
+        <v>100</v>
+      </c>
+      <c r="H44" s="48" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="46">
+        <v>1</v>
+      </c>
+      <c r="E45" s="46">
+        <v>1</v>
+      </c>
+      <c r="F45" s="47">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G45" s="46">
+        <v>100</v>
+      </c>
+      <c r="H45" s="48" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B46" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="C46" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="47">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G46" s="46">
+        <v>100</v>
+      </c>
+      <c r="H46" s="48" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="B47" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" s="50">
+        <v>1</v>
+      </c>
+      <c r="E47" s="50">
+        <v>1</v>
+      </c>
+      <c r="F47" s="50">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G47" s="50">
+        <v>100</v>
+      </c>
+      <c r="H47" s="51" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="B48" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" s="50">
+        <v>1</v>
+      </c>
+      <c r="E48" s="50">
+        <v>1</v>
+      </c>
+      <c r="F48" s="50">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G48" s="50">
+        <v>100</v>
+      </c>
+      <c r="H48" s="51" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="B49" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" s="50">
+        <v>1</v>
+      </c>
+      <c r="E49" s="50">
+        <v>1</v>
+      </c>
+      <c r="F49" s="50">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G49" s="50">
+        <v>100</v>
+      </c>
+      <c r="H49" s="51" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="B50" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="C50" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="50">
+        <v>1</v>
+      </c>
+      <c r="E50" s="50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="50">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G50" s="50">
+        <v>100</v>
+      </c>
+      <c r="H50" s="51" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="B51" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="C51" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="50">
+        <v>1</v>
+      </c>
+      <c r="E51" s="50">
+        <v>1</v>
+      </c>
+      <c r="F51" s="50">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G51" s="50">
+        <v>100</v>
+      </c>
+      <c r="H51" s="51" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="B52" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52" s="50">
+        <v>1</v>
+      </c>
+      <c r="E52" s="50">
+        <v>1</v>
+      </c>
+      <c r="F52" s="50">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G52" s="50">
+        <v>100</v>
+      </c>
+      <c r="H52" s="51" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="B53" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D53" s="50">
+        <v>1</v>
+      </c>
+      <c r="E53" s="50">
+        <v>1</v>
+      </c>
+      <c r="F53" s="50">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G53" s="50">
+        <v>100</v>
+      </c>
+      <c r="H53" s="51" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="C54" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" s="50">
+        <v>1</v>
+      </c>
+      <c r="E54" s="50">
+        <v>1</v>
+      </c>
+      <c r="F54" s="50">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G54" s="50">
+        <v>100</v>
+      </c>
+      <c r="H54" s="51" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D55" s="50">
+        <v>1</v>
+      </c>
+      <c r="E55" s="50">
+        <v>1</v>
+      </c>
+      <c r="F55" s="50">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G55" s="50">
+        <v>100</v>
+      </c>
+      <c r="H55" s="51" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="25">
-        <v>1</v>
-      </c>
-      <c r="F25" s="24">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G25" s="25">
-        <v>1</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="C56" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" s="31">
+        <v>1</v>
+      </c>
+      <c r="E56" s="31">
+        <v>1</v>
+      </c>
+      <c r="F56" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G56" s="31"/>
+      <c r="H56" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="15" t="s">
+    </row>
+    <row r="57" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="32">
-        <v>1</v>
-      </c>
-      <c r="E26" s="32">
-        <v>3</v>
-      </c>
-      <c r="F26" s="24">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G26" s="32">
-        <v>1000</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B27" s="15" t="s">
+      <c r="C57" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="D57" s="35">
+        <v>1</v>
+      </c>
+      <c r="E57" s="35">
+        <v>1</v>
+      </c>
+      <c r="F57" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G57" s="35"/>
+      <c r="H57" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="C27" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" s="32">
-        <v>1</v>
-      </c>
-      <c r="E27" s="32">
-        <v>3</v>
-      </c>
-      <c r="F27" s="24">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G27" s="32">
-        <v>1</v>
-      </c>
-      <c r="H27" s="15" t="s">
+    </row>
+    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E58" s="33">
+        <f>SUM(E6:E57)+E4+D5*E5</f>
+        <v>331</v>
+      </c>
+      <c r="F58" s="34"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E60" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="F60" s="33">
+        <f>SUM(F4:F59)</f>
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" s="32">
-        <v>1</v>
-      </c>
-      <c r="E28" s="32">
-        <v>3</v>
-      </c>
-      <c r="F28" s="24">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G28" s="32">
-        <v>1</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="J28" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="33">
-        <v>1</v>
-      </c>
-      <c r="E29" s="33">
-        <v>1</v>
-      </c>
-      <c r="F29" s="24">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G29" s="33">
-        <v>1</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="D30" s="34">
-        <v>1</v>
-      </c>
-      <c r="E30" s="34">
-        <v>1</v>
-      </c>
-      <c r="F30" s="24">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G30" s="34"/>
-      <c r="H30" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="D31" s="38">
-        <v>1</v>
-      </c>
-      <c r="E31" s="38">
-        <v>1</v>
-      </c>
-      <c r="F31" s="24">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G31" s="38"/>
-      <c r="H31" s="39" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E32" s="36">
-        <f>SUM(E6:E31)+E4+D5*E5</f>
-        <v>266</v>
-      </c>
-      <c r="F32" s="37"/>
-    </row>
-    <row r="33" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-    </row>
-    <row r="34" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E34" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="F34" s="36">
-        <f>SUM(F4:F33)</f>
-        <v>2660</v>
       </c>
     </row>
   </sheetData>
@@ -2081,10 +3001,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <sheetPr>
+    <tabColor theme="3" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2115,801 +3038,818 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1">
         <v>502</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1">
         <v>502</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1">
         <v>502</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1">
         <v>502</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1">
         <v>502</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C7" s="1">
         <v>502</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C8" s="1">
         <v>502</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C9" s="1">
         <v>502</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C10" s="1">
         <v>502</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C11" s="1">
         <v>502</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1">
         <v>502</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1">
         <v>502</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C14" s="1">
         <v>502</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1">
         <v>502</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C16" s="1">
         <v>502</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1">
         <v>502</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C18" s="1">
         <v>502</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C19" s="1">
         <v>502</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C20" s="1">
         <v>502</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C21" s="1">
         <v>502</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C22" s="1">
         <v>502</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C23" s="1">
         <v>502</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C24" s="1">
         <v>502</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C25" s="1">
         <v>502</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C26" s="1">
         <v>502</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C27" s="1">
         <v>502</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C28" s="1">
         <v>502</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C29" s="1">
         <v>502</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C30" s="1">
         <v>502</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C31" s="1">
         <v>502</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1">
         <v>502</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C33" s="1">
         <v>502</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1">
         <v>502</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
         <v>502</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1">
         <v>502</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1">
         <v>502</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1">
         <v>502</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C39" s="1">
         <v>502</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1">
         <v>502</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C41" s="1">
         <v>502</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C42" s="1">
         <v>502</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C43" s="1">
         <v>502</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="37">
+        <v>502</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="37">
+        <v>502</v>
+      </c>
+      <c r="D45" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="40">
-        <v>502</v>
-      </c>
-      <c r="D44" s="40" t="s">
+      <c r="E45" s="37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="37">
+        <v>502</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="40">
-        <v>502</v>
-      </c>
-      <c r="D45" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="40" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="40">
-        <v>502</v>
-      </c>
-      <c r="D46" s="40" t="s">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="B47" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="B48" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="D48" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="40" t="s">
-        <v>10</v>
+      <c r="E49" s="35" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2923,229 +3863,433 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="92.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="C2" s="1">
-        <v>502</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" s="1">
-        <v>502</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>192</v>
       </c>
       <c r="C4" s="1">
-        <v>502</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="C5" s="1">
-        <v>502</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="C8" s="1">
-        <v>502</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="C9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="C10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="C11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C36" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" s="44">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/DistributionSystems/SimulinkOpal/Banshee/Banshee_UDP_Mapping.xlsx
+++ b/DistributionSystems/SimulinkOpal/Banshee/Banshee_UDP_Mapping.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\re25624\Desktop\REPO_branch\DistributionSystems\SimulinkOpal\Banshee\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="21075" windowHeight="10035"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Relay Data - Order" sheetId="1" r:id="rId2"/>
     <sheet name="MiscData1 - Order" sheetId="8" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -752,7 +747,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1065,6 +1060,26 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1087,26 +1102,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1157,11 +1152,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C37" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" headerRowBorderDxfId="5" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C37" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
   <autoFilter ref="A1:C37"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Load" dataDxfId="4"/>
-    <tableColumn id="2" name="Attribute" dataDxfId="3"/>
+    <tableColumn id="1" name="Load" dataDxfId="2"/>
+    <tableColumn id="2" name="Attribute" dataDxfId="1"/>
     <tableColumn id="3" name="Scale Factor" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1211,7 +1206,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1246,7 +1241,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1457,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,11 +1580,11 @@
         <v>1</v>
       </c>
       <c r="E6" s="23">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F6" s="21">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>590</v>
       </c>
       <c r="G6" s="23">
         <v>10</v>
@@ -1612,11 +1607,11 @@
         <v>1</v>
       </c>
       <c r="E7" s="23">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F7" s="21">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>590</v>
       </c>
       <c r="G7" s="23">
         <v>10</v>
@@ -1639,11 +1634,11 @@
         <v>1</v>
       </c>
       <c r="E8" s="23">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F8" s="21">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>590</v>
       </c>
       <c r="G8" s="23">
         <v>100</v>
@@ -1666,11 +1661,11 @@
         <v>1</v>
       </c>
       <c r="E9" s="23">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F9" s="21">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>590</v>
       </c>
       <c r="G9" s="23">
         <v>100</v>
@@ -1693,11 +1688,11 @@
         <v>1</v>
       </c>
       <c r="E10" s="23">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F10" s="21">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>590</v>
       </c>
       <c r="G10" s="23">
         <v>1</v>
@@ -2371,11 +2366,11 @@
         <v>1</v>
       </c>
       <c r="E35" s="30">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F35" s="43">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="G35" s="30">
         <v>1</v>
@@ -2398,11 +2393,11 @@
         <v>1</v>
       </c>
       <c r="E36" s="30">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F36" s="43">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="G36" s="30">
         <v>1</v>
@@ -2971,7 +2966,7 @@
     <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E58" s="33">
         <f>SUM(E6:E57)+E4+D5*E5</f>
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="F58" s="34"/>
     </row>
@@ -2985,7 +2980,7 @@
       </c>
       <c r="F60" s="33">
         <f>SUM(F4:F59)</f>
-        <v>3310</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
